--- a/Entregables/Detalle_Recursos.xlsx
+++ b/Entregables/Detalle_Recursos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Documents\GanttProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyecto_Py\Cetaf_Python_Uikit_V1\Entregables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C847FD-C45F-4DBD-8AC6-C69A2D80A17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D262C590-F2F6-4861-80B8-887451EFE764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA863102-029D-4307-8295-1922658CCC4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BA863102-029D-4307-8295-1922658CCC4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>Nombre</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>Carga Total</t>
+  </si>
+  <si>
+    <t>Leonardo Menza L.;Jhon Alba</t>
+  </si>
+  <si>
+    <t>0:100.00;1:100.00</t>
   </si>
 </sst>
 </file>
@@ -312,9 +318,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +329,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Ubuntu Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Ubuntu Light"/>
@@ -349,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -357,7 +376,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -393,6 +415,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -408,38 +431,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Ubuntu Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Ubuntu Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -560,7 +552,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -640,6 +632,36 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Ubuntu Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Ubuntu Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -654,32 +676,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EBA137F-F7CD-4FD2-93F4-51091B9E0FB7}" name="gantt" displayName="gantt" ref="A1:I29" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EBA137F-F7CD-4FD2-93F4-51091B9E0FB7}" name="gantt" displayName="gantt" ref="A1:I29" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:I29" xr:uid="{7EBA137F-F7CD-4FD2-93F4-51091B9E0FB7}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6A2ECCAB-F939-42BF-A6A5-57D465BF6F34}" name="Nombre" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{8DE5A1AB-2CFC-4F1E-BD76-AD6DA78116F5}" name="Fecha de inicio" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{81E3DA5A-2FF2-4676-8786-E1952433DDE3}" name="Fecha de fin" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{43316DC6-5D28-44B5-A113-5C4F95C1A60B}" name="Duración" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{FFF599C0-638F-4951-B684-EF6D58979093}" name="Progreso" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{F8953C67-80A1-429D-B4E5-DDB82056BFD2}" name="Costo" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{EE9C874D-B429-4435-8A86-9C37AE7A1912}" name="Número de esquema" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{42D6CEBE-5576-4777-9F83-FEB8C49AF87D}" name="Recursos" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{4E4B9EDC-DA6F-44B1-BE2E-83F082679465}" name="Assignments" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{6A2ECCAB-F939-42BF-A6A5-57D465BF6F34}" name="Nombre" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{8DE5A1AB-2CFC-4F1E-BD76-AD6DA78116F5}" name="Fecha de inicio" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{81E3DA5A-2FF2-4676-8786-E1952433DDE3}" name="Fecha de fin" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{43316DC6-5D28-44B5-A113-5C4F95C1A60B}" name="Duración" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{FFF599C0-638F-4951-B684-EF6D58979093}" name="Progreso" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{F8953C67-80A1-429D-B4E5-DDB82056BFD2}" name="Costo" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{EE9C874D-B429-4435-8A86-9C37AE7A1912}" name="Número de esquema" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{42D6CEBE-5576-4777-9F83-FEB8C49AF87D}" name="Recursos" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{4E4B9EDC-DA6F-44B1-BE2E-83F082679465}" name="Assignments" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC06F7CC-D17C-471E-9DAB-FC8CCD3FF1EB}" name="recursos" displayName="recursos" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC06F7CC-D17C-471E-9DAB-FC8CCD3FF1EB}" name="recursos" displayName="recursos" ref="A1:E6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E6" xr:uid="{EC06F7CC-D17C-471E-9DAB-FC8CCD3FF1EB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F7B74913-7D98-482A-B169-D254324C432B}" name="Id." dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{6165FEB6-4D97-4F88-908B-2752EF2616C1}" name="Nombre" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{63EA5967-A32C-4327-9D7C-80D1116567E7}" name="Tarifa estándar" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{06C2DBC4-8F28-4503-A0FD-D7543BF7BADB}" name="Coste total" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{45C4CB67-A892-4CBB-92BA-11F557DD1C10}" name="Carga Total" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F7B74913-7D98-482A-B169-D254324C432B}" name="Id." dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{6165FEB6-4D97-4F88-908B-2752EF2616C1}" name="Nombre" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{63EA5967-A32C-4327-9D7C-80D1116567E7}" name="Tarifa estándar" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{06C2DBC4-8F28-4503-A0FD-D7543BF7BADB}" name="Coste total" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{45C4CB67-A892-4CBB-92BA-11F557DD1C10}" name="Carga Total" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -984,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909D89C5-8F5A-447A-B8ED-93B5468B4DAD}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1598,16 +1620,16 @@
         <v>90</v>
       </c>
       <c r="F21" s="3">
-        <v>2400000</v>
+        <v>4800000</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1843,6 +1865,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1853,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CE069B-6AC5-4407-BA26-297A873AE99C}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1869,7 +1892,7 @@
     <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -1886,7 +1909,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1903,7 +1926,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1914,13 +1937,13 @@
         <v>8000</v>
       </c>
       <c r="D3" s="3">
-        <v>776000</v>
+        <v>3176000</v>
       </c>
       <c r="E3" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,7 +1960,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1954,7 +1977,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1970,11 +1993,14 @@
       <c r="E6" s="1">
         <v>146</v>
       </c>
+      <c r="F6" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Entregables/Detalle_Recursos.xlsx
+++ b/Entregables/Detalle_Recursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyecto_Py\Cetaf_Python_Uikit_V1\Entregables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D262C590-F2F6-4861-80B8-887451EFE764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B042428-9F72-403F-94B8-47B0C6E112A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BA863102-029D-4307-8295-1922658CCC4C}"/>
   </bookViews>
@@ -386,7 +386,104 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Ubuntu Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Ubuntu Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Ubuntu Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Ubuntu Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Ubuntu Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -676,32 +773,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EBA137F-F7CD-4FD2-93F4-51091B9E0FB7}" name="gantt" displayName="gantt" ref="A1:I29" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EBA137F-F7CD-4FD2-93F4-51091B9E0FB7}" name="gantt" displayName="gantt" ref="A1:I29" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:I29" xr:uid="{7EBA137F-F7CD-4FD2-93F4-51091B9E0FB7}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6A2ECCAB-F939-42BF-A6A5-57D465BF6F34}" name="Nombre" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{8DE5A1AB-2CFC-4F1E-BD76-AD6DA78116F5}" name="Fecha de inicio" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{81E3DA5A-2FF2-4676-8786-E1952433DDE3}" name="Fecha de fin" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{43316DC6-5D28-44B5-A113-5C4F95C1A60B}" name="Duración" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{FFF599C0-638F-4951-B684-EF6D58979093}" name="Progreso" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{F8953C67-80A1-429D-B4E5-DDB82056BFD2}" name="Costo" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{EE9C874D-B429-4435-8A86-9C37AE7A1912}" name="Número de esquema" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{42D6CEBE-5576-4777-9F83-FEB8C49AF87D}" name="Recursos" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{4E4B9EDC-DA6F-44B1-BE2E-83F082679465}" name="Assignments" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{6A2ECCAB-F939-42BF-A6A5-57D465BF6F34}" name="Nombre" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{8DE5A1AB-2CFC-4F1E-BD76-AD6DA78116F5}" name="Fecha de inicio" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{81E3DA5A-2FF2-4676-8786-E1952433DDE3}" name="Fecha de fin" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{43316DC6-5D28-44B5-A113-5C4F95C1A60B}" name="Duración" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{FFF599C0-638F-4951-B684-EF6D58979093}" name="Progreso" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{F8953C67-80A1-429D-B4E5-DDB82056BFD2}" name="Costo" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{EE9C874D-B429-4435-8A86-9C37AE7A1912}" name="Número de esquema" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{42D6CEBE-5576-4777-9F83-FEB8C49AF87D}" name="Recursos" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{4E4B9EDC-DA6F-44B1-BE2E-83F082679465}" name="Assignments" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC06F7CC-D17C-471E-9DAB-FC8CCD3FF1EB}" name="recursos" displayName="recursos" ref="A1:E6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC06F7CC-D17C-471E-9DAB-FC8CCD3FF1EB}" name="recursos" displayName="recursos" ref="A1:E7" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:E6" xr:uid="{EC06F7CC-D17C-471E-9DAB-FC8CCD3FF1EB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F7B74913-7D98-482A-B169-D254324C432B}" name="Id." dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{6165FEB6-4D97-4F88-908B-2752EF2616C1}" name="Nombre" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{63EA5967-A32C-4327-9D7C-80D1116567E7}" name="Tarifa estándar" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{06C2DBC4-8F28-4503-A0FD-D7543BF7BADB}" name="Coste total" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{45C4CB67-A892-4CBB-92BA-11F557DD1C10}" name="Carga Total" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F7B74913-7D98-482A-B169-D254324C432B}" name="Id." dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{6165FEB6-4D97-4F88-908B-2752EF2616C1}" name="Nombre" dataDxfId="8" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{63EA5967-A32C-4327-9D7C-80D1116567E7}" name="Tarifa estándar" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{06C2DBC4-8F28-4503-A0FD-D7543BF7BADB}" name="Coste total" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1">
+      <totalsRowFormula>SUM(recursos[Coste total])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{45C4CB67-A892-4CBB-92BA-11F557DD1C10}" name="Carga Total" dataDxfId="5" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1876,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CE069B-6AC5-4407-BA26-297A873AE99C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1995,6 +2094,12 @@
       </c>
       <c r="F6" s="4"/>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <f>SUM(recursos[Coste total])</f>
+        <v>9976000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
